--- a/assets/plantillas/egresos.xlsx
+++ b/assets/plantillas/egresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aplicaciones web\Programas con pyton\proyectoC\assets\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B57E6-C78B-4DBF-9604-2FA488C9E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF908132-ED68-4E1A-AC8B-851138F55373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>PÓLIZA DE EGRESO</t>
   </si>
@@ -88,24 +88,6 @@
   </si>
   <si>
     <t>C. JOSÉ EDUARDO MARTÍNEZ CRUZ</t>
-  </si>
-  <si>
-    <t>21/05/2025</t>
-  </si>
-  <si>
-    <t>Sadriel</t>
-  </si>
-  <si>
-    <t>EFECTIVO</t>
-  </si>
-  <si>
-    <t>iludyiegsrliq09876</t>
-  </si>
-  <si>
-    <t>xd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni una </t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1069,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>13220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>13220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1110,8 +1092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4330148"/>
-          <a:ext cx="9565171" cy="4969565"/>
+          <a:off x="0" y="4240794"/>
+          <a:ext cx="9471881" cy="4920363"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3365,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BK35" sqref="BK35"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BN10" sqref="BN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
@@ -4416,9 +4398,7 @@
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
       <c r="AW5" s="38"/>
-      <c r="AX5" s="57" t="s">
-        <v>19</v>
-      </c>
+      <c r="AX5" s="57"/>
       <c r="AY5" s="57"/>
       <c r="AZ5" s="57"/>
       <c r="BA5" s="57"/>
@@ -4523,9 +4503,7 @@
       <c r="AN8" s="43"/>
       <c r="AO8" s="43"/>
       <c r="AP8" s="43"/>
-      <c r="AQ8" s="44">
-        <v>45798</v>
-      </c>
+      <c r="AQ8" s="44"/>
       <c r="AR8" s="45"/>
       <c r="AS8" s="45"/>
       <c r="AT8" s="45"/>
@@ -4540,9 +4518,7 @@
       <c r="BC8" s="45"/>
     </row>
     <row r="9" spans="1:64" s="1" customFormat="1" ht="25.55" customHeight="1">
-      <c r="A9" s="46" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -4582,9 +4558,7 @@
       <c r="AL9" s="46"/>
       <c r="AM9" s="46"/>
       <c r="AN9" s="46"/>
-      <c r="AO9" s="47">
-        <v>10</v>
-      </c>
+      <c r="AO9" s="47"/>
       <c r="AP9" s="48"/>
       <c r="AQ9" s="48"/>
       <c r="AR9" s="48"/>
@@ -4683,9 +4657,7 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="51" t="s">
-        <v>21</v>
-      </c>
+      <c r="T12" s="51"/>
       <c r="U12" s="51"/>
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
@@ -4718,9 +4690,7 @@
       <c r="BC12" s="39"/>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="25.55" customHeight="1">
-      <c r="A13" s="64" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="64"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -7043,9 +7013,7 @@
       <c r="BK43" s="28"/>
     </row>
     <row r="44" spans="1:256" s="25" customFormat="1" ht="30.7" customHeight="1">
-      <c r="A44" s="89" t="s">
-        <v>23</v>
-      </c>
+      <c r="A44" s="89"/>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
       <c r="D44" s="90"/>
@@ -7377,9 +7345,7 @@
       <c r="IV46" s="88"/>
     </row>
     <row r="47" spans="1:256">
-      <c r="A47" s="105" t="s">
-        <v>24</v>
-      </c>
+      <c r="A47" s="105"/>
       <c r="B47" s="95"/>
       <c r="C47" s="95"/>
       <c r="D47" s="95"/>

--- a/assets/plantillas/egresos.xlsx
+++ b/assets/plantillas/egresos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aplicaciones web\Programas con pyton\proyectoC\assets\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF908132-ED68-4E1A-AC8B-851138F55373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17E636-E26D-415F-9A17-D64279985924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2930" yWindow="2930" windowWidth="18031" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 ene 2025" sheetId="193" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>PÓLIZA DE EGRESO</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>REVISÓ</t>
-  </si>
-  <si>
-    <t>C.P. MARÍA ELENA GUILLÉN VÁZQUEZ</t>
-  </si>
-  <si>
-    <t>LIC. J. CUPERTINO SARMIENTO MERCADO</t>
-  </si>
-  <si>
-    <t>C. JOSÉ EDUARDO MARTÍNEZ CRUZ</t>
   </si>
 </sst>
 </file>
@@ -536,6 +527,197 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
       <protection hidden="1"/>
@@ -562,9 +744,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -595,194 +774,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3347,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BN10" sqref="BN10"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM55" sqref="AM55:BC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
@@ -4191,103 +4182,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="1" customFormat="1" ht="26.3" customHeight="1">
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
     </row>
     <row r="2" spans="1:64" s="1" customFormat="1" ht="29.3" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="55"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
     </row>
     <row r="3" spans="1:64" s="1" customFormat="1" ht="7.55" customHeight="1">
       <c r="A3" s="2"/>
@@ -4363,15 +4354,15 @@
       <c r="AT4" s="6"/>
       <c r="AU4" s="6"/>
       <c r="AV4" s="6"/>
-      <c r="AW4" s="56" t="s">
+      <c r="AW4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="108"/>
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
@@ -4398,12 +4389,12 @@
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
       <c r="AW5" s="38"/>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="57"/>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="57"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="109"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -4429,12 +4420,12 @@
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
       <c r="AV6" s="11"/>
-      <c r="AX6" s="58"/>
-      <c r="AY6" s="58"/>
-      <c r="AZ6" s="58"/>
-      <c r="BA6" s="58"/>
-      <c r="BB6" s="58"/>
-      <c r="BC6" s="58"/>
+      <c r="AX6" s="110"/>
+      <c r="AY6" s="110"/>
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="110"/>
     </row>
     <row r="7" spans="1:64" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="AH7" s="8"/>
@@ -4459,177 +4450,177 @@
       <c r="BC7" s="39"/>
     </row>
     <row r="8" spans="1:64" s="1" customFormat="1" ht="25.55" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="96"/>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="98"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="98"/>
+      <c r="BC8" s="98"/>
     </row>
     <row r="9" spans="1:64" s="1" customFormat="1" ht="25.55" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="101"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="101"/>
+      <c r="AS9" s="101"/>
+      <c r="AT9" s="101"/>
+      <c r="AU9" s="101"/>
+      <c r="AV9" s="101"/>
+      <c r="AW9" s="101"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="101"/>
+      <c r="AZ9" s="101"/>
+      <c r="BA9" s="101"/>
+      <c r="BB9" s="101"/>
+      <c r="BC9" s="101"/>
     </row>
     <row r="10" spans="1:64" s="1" customFormat="1" ht="112.55" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="88"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="88"/>
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="88"/>
+      <c r="AY10" s="88"/>
+      <c r="AZ10" s="88"/>
+      <c r="BA10" s="88"/>
+      <c r="BB10" s="88"/>
+      <c r="BC10" s="88"/>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1" ht="10.050000000000001" customHeight="1">
       <c r="AH11" s="8"/>
@@ -4657,17 +4648,17 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
@@ -4690,125 +4681,125 @@
       <c r="BC12" s="39"/>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="25.55" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="88"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="88"/>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="88"/>
+      <c r="AY13" s="88"/>
+      <c r="AZ13" s="88"/>
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="88"/>
+      <c r="BC13" s="88"/>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1" ht="10.050000000000001" customHeight="1"/>
     <row r="15" spans="1:64" s="12" customFormat="1" ht="15.05" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="69" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="70"/>
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="65" t="s">
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="66"/>
+      <c r="BA15" s="66"/>
+      <c r="BB15" s="66"/>
+      <c r="BC15" s="66"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
@@ -4820,104 +4811,104 @@
       <c r="BL15" s="1"/>
     </row>
     <row r="16" spans="1:64" s="12" customFormat="1" ht="15.05" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="74"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
     </row>
     <row r="17" spans="1:65" s="12" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="75"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
       <c r="AP17" s="13"/>
       <c r="AQ17" s="13"/>
       <c r="AR17" s="13"/>
@@ -4936,63 +4927,63 @@
     </row>
     <row r="18" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="60" t="str">
+      <c r="G18" s="83" t="str">
         <f>IF(ISBLANK(B18),"",VLOOKUP($B18,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="60"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="60"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="79"/>
+      <c r="BA18" s="79"/>
+      <c r="BB18" s="79"/>
+      <c r="BC18" s="79"/>
       <c r="BD18" s="18" t="str">
         <f>IF(ISBLANK(B18),"",VLOOKUP(B18,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5022,63 +5013,63 @@
     </row>
     <row r="19" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="60" t="str">
+      <c r="G19" s="83" t="str">
         <f>IF(ISBLANK(B19),"",VLOOKUP($B19,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="60"/>
-      <c r="AM19" s="60"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="60"/>
-      <c r="AP19" s="60"/>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="60"/>
-      <c r="AU19" s="61"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="83"/>
+      <c r="AO19" s="83"/>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="83"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="84"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="79"/>
+      <c r="BA19" s="79"/>
+      <c r="BB19" s="79"/>
+      <c r="BC19" s="79"/>
       <c r="BD19" s="18" t="str">
         <f>IF(ISBLANK(B19),"",VLOOKUP(B19,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5108,63 +5099,63 @@
     </row>
     <row r="20" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="60" t="str">
+      <c r="G20" s="83" t="str">
         <f>IF(ISBLANK(B20),"",VLOOKUP($B20,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="60"/>
-      <c r="AM20" s="60"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="60"/>
-      <c r="AP20" s="60"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="60"/>
-      <c r="AS20" s="60"/>
-      <c r="AT20" s="60"/>
-      <c r="AU20" s="61"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="83"/>
+      <c r="AO20" s="83"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="79"/>
+      <c r="AZ20" s="79"/>
+      <c r="BA20" s="79"/>
+      <c r="BB20" s="79"/>
+      <c r="BC20" s="79"/>
       <c r="BD20" s="18" t="str">
         <f>IF(ISBLANK(B20),"",VLOOKUP(B20,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5194,63 +5185,63 @@
     </row>
     <row r="21" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="60" t="str">
+      <c r="G21" s="83" t="str">
         <f>IF(ISBLANK(B21),"",VLOOKUP($B21,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="60"/>
-      <c r="AP21" s="60"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="63"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="63"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="63"/>
-      <c r="BC21" s="63"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="79"/>
+      <c r="BC21" s="79"/>
       <c r="BD21" s="18" t="str">
         <f>IF(ISBLANK(B21),"",VLOOKUP(B21,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5280,63 +5271,63 @@
     </row>
     <row r="22" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="60" t="str">
+      <c r="G22" s="83" t="str">
         <f>IF(ISBLANK(B22),"",VLOOKUP($B22,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="60"/>
-      <c r="AP22" s="60"/>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="60"/>
-      <c r="AS22" s="60"/>
-      <c r="AT22" s="60"/>
-      <c r="AU22" s="61"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="63"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="63"/>
-      <c r="BC22" s="63"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="83"/>
+      <c r="AO22" s="83"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
+      <c r="AR22" s="83"/>
+      <c r="AS22" s="83"/>
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="79"/>
+      <c r="BC22" s="79"/>
       <c r="BD22" s="18" t="str">
         <f>IF(ISBLANK(B22),"",VLOOKUP(B22,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5367,63 +5358,63 @@
     </row>
     <row r="23" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="26"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="60" t="str">
+      <c r="G23" s="83" t="str">
         <f>IF(ISBLANK(B23),"",VLOOKUP($B23,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="60"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="61"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="63"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="63"/>
-      <c r="BB23" s="63"/>
-      <c r="BC23" s="63"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="83"/>
+      <c r="AO23" s="83"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
       <c r="BD23" s="18" t="str">
         <f>IF(ISBLANK(B23),"",VLOOKUP(B23,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5453,63 +5444,63 @@
     </row>
     <row r="24" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="60" t="str">
+      <c r="G24" s="83" t="str">
         <f>IF(ISBLANK(B24),"",VLOOKUP($B24,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="60"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="60"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="60"/>
-      <c r="AR24" s="60"/>
-      <c r="AS24" s="60"/>
-      <c r="AT24" s="60"/>
-      <c r="AU24" s="61"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="63"/>
-      <c r="AX24" s="63"/>
-      <c r="AY24" s="63"/>
-      <c r="AZ24" s="63"/>
-      <c r="BA24" s="63"/>
-      <c r="BB24" s="63"/>
-      <c r="BC24" s="63"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="83"/>
+      <c r="AO24" s="83"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="78"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="79"/>
+      <c r="BA24" s="79"/>
+      <c r="BB24" s="79"/>
+      <c r="BC24" s="79"/>
       <c r="BD24" s="18" t="str">
         <f>IF(ISBLANK(B24),"",VLOOKUP(B24,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5539,63 +5530,63 @@
     </row>
     <row r="25" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="60" t="str">
+      <c r="G25" s="83" t="str">
         <f>IF(ISBLANK(B25),"",VLOOKUP($B25,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="60"/>
-      <c r="AS25" s="60"/>
-      <c r="AT25" s="60"/>
-      <c r="AU25" s="61"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="79"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="79"/>
-      <c r="BA25" s="79"/>
-      <c r="BB25" s="79"/>
-      <c r="BC25" s="79"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="83"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="85"/>
+      <c r="AW25" s="86"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="86"/>
+      <c r="BA25" s="86"/>
+      <c r="BB25" s="86"/>
+      <c r="BC25" s="86"/>
       <c r="BD25" s="18" t="str">
         <f>IF(ISBLANK(B25),"",VLOOKUP(B25,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5625,63 +5616,63 @@
     </row>
     <row r="26" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="60" t="str">
+      <c r="G26" s="83" t="str">
         <f>IF(ISBLANK(B26),"",VLOOKUP($B26,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
-      <c r="AP26" s="60"/>
-      <c r="AQ26" s="60"/>
-      <c r="AR26" s="60"/>
-      <c r="AS26" s="60"/>
-      <c r="AT26" s="60"/>
-      <c r="AU26" s="61"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="63"/>
-      <c r="AX26" s="63"/>
-      <c r="AY26" s="63"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="63"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="83"/>
+      <c r="AG26" s="83"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="83"/>
+      <c r="AK26" s="83"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="83"/>
+      <c r="AO26" s="83"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="79"/>
       <c r="BD26" s="18" t="str">
         <f>IF(ISBLANK(B26),"",VLOOKUP(B26,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5711,63 +5702,63 @@
     </row>
     <row r="27" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="60" t="str">
+      <c r="G27" s="83" t="str">
         <f>IF(ISBLANK(B27),"",VLOOKUP($B27,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="60"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="60"/>
-      <c r="AS27" s="60"/>
-      <c r="AT27" s="60"/>
-      <c r="AU27" s="61"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="83"/>
+      <c r="AO27" s="83"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="83"/>
+      <c r="AS27" s="83"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="79"/>
       <c r="BD27" s="18" t="str">
         <f>IF(ISBLANK(B27),"",VLOOKUP(B27,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5798,63 +5789,63 @@
     </row>
     <row r="28" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="60" t="str">
+      <c r="G28" s="83" t="str">
         <f>IF(ISBLANK(B28),"",VLOOKUP($B28,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
-      <c r="AP28" s="60"/>
-      <c r="AQ28" s="60"/>
-      <c r="AR28" s="60"/>
-      <c r="AS28" s="60"/>
-      <c r="AT28" s="60"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="83"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="83"/>
+      <c r="AN28" s="83"/>
+      <c r="AO28" s="83"/>
+      <c r="AP28" s="83"/>
+      <c r="AQ28" s="83"/>
+      <c r="AR28" s="83"/>
+      <c r="AS28" s="83"/>
+      <c r="AT28" s="83"/>
+      <c r="AU28" s="84"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
       <c r="BD28" s="18" t="str">
         <f>IF(ISBLANK(B28),"",VLOOKUP(B28,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5885,63 +5876,63 @@
     </row>
     <row r="29" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="60" t="str">
+      <c r="G29" s="83" t="str">
         <f>IF(ISBLANK(B29),"",VLOOKUP($B29,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="60"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="60"/>
-      <c r="AS29" s="60"/>
-      <c r="AT29" s="60"/>
-      <c r="AU29" s="61"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="63"/>
-      <c r="BC29" s="63"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="83"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
       <c r="BD29" s="18" t="str">
         <f>IF(ISBLANK(B29),"",VLOOKUP(B29,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -5971,63 +5962,63 @@
     </row>
     <row r="30" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="60" t="str">
+      <c r="G30" s="83" t="str">
         <f>IF(ISBLANK(B30),"",VLOOKUP($B30,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
-      <c r="AP30" s="60"/>
-      <c r="AQ30" s="60"/>
-      <c r="AR30" s="60"/>
-      <c r="AS30" s="60"/>
-      <c r="AT30" s="60"/>
-      <c r="AU30" s="61"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="63"/>
-      <c r="AX30" s="63"/>
-      <c r="AY30" s="63"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
-      <c r="BB30" s="63"/>
-      <c r="BC30" s="63"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="83"/>
+      <c r="AF30" s="83"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="83"/>
+      <c r="AJ30" s="83"/>
+      <c r="AK30" s="83"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="83"/>
+      <c r="AN30" s="83"/>
+      <c r="AO30" s="83"/>
+      <c r="AP30" s="83"/>
+      <c r="AQ30" s="83"/>
+      <c r="AR30" s="83"/>
+      <c r="AS30" s="83"/>
+      <c r="AT30" s="83"/>
+      <c r="AU30" s="84"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="79"/>
+      <c r="BA30" s="79"/>
+      <c r="BB30" s="79"/>
+      <c r="BC30" s="79"/>
       <c r="BD30" s="18" t="str">
         <f>IF(ISBLANK(B30),"",VLOOKUP(B30,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -6057,63 +6048,63 @@
     </row>
     <row r="31" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="60" t="str">
+      <c r="G31" s="83" t="str">
         <f>IF(ISBLANK(B31),"",VLOOKUP($B31,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="60"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="60"/>
-      <c r="AP31" s="60"/>
-      <c r="AQ31" s="60"/>
-      <c r="AR31" s="60"/>
-      <c r="AS31" s="60"/>
-      <c r="AT31" s="60"/>
-      <c r="AU31" s="61"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="63"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="83"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="83"/>
+      <c r="AF31" s="83"/>
+      <c r="AG31" s="83"/>
+      <c r="AH31" s="83"/>
+      <c r="AI31" s="83"/>
+      <c r="AJ31" s="83"/>
+      <c r="AK31" s="83"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="83"/>
+      <c r="AN31" s="83"/>
+      <c r="AO31" s="83"/>
+      <c r="AP31" s="83"/>
+      <c r="AQ31" s="83"/>
+      <c r="AR31" s="83"/>
+      <c r="AS31" s="83"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="84"/>
+      <c r="AV31" s="78"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="79"/>
+      <c r="AZ31" s="79"/>
+      <c r="BA31" s="79"/>
+      <c r="BB31" s="79"/>
+      <c r="BC31" s="79"/>
       <c r="BD31" s="18" t="str">
         <f>IF(ISBLANK(B31),"",VLOOKUP(B31,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -6143,63 +6134,63 @@
     </row>
     <row r="32" spans="1:65" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="60" t="str">
+      <c r="G32" s="83" t="str">
         <f>IF(ISBLANK(B32),"",VLOOKUP($B32,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="60"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="60"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="60"/>
-      <c r="AS32" s="60"/>
-      <c r="AT32" s="60"/>
-      <c r="AU32" s="61"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="63"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="63"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="83"/>
+      <c r="AG32" s="83"/>
+      <c r="AH32" s="83"/>
+      <c r="AI32" s="83"/>
+      <c r="AJ32" s="83"/>
+      <c r="AK32" s="83"/>
+      <c r="AL32" s="83"/>
+      <c r="AM32" s="83"/>
+      <c r="AN32" s="83"/>
+      <c r="AO32" s="83"/>
+      <c r="AP32" s="83"/>
+      <c r="AQ32" s="83"/>
+      <c r="AR32" s="83"/>
+      <c r="AS32" s="83"/>
+      <c r="AT32" s="83"/>
+      <c r="AU32" s="84"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="79"/>
+      <c r="AZ32" s="79"/>
+      <c r="BA32" s="79"/>
+      <c r="BB32" s="79"/>
+      <c r="BC32" s="79"/>
       <c r="BD32" s="18"/>
       <c r="BE32" s="19"/>
       <c r="BF32" s="20"/>
@@ -6213,63 +6204,63 @@
     </row>
     <row r="33" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="60" t="str">
+      <c r="G33" s="83" t="str">
         <f>IF(ISBLANK(B33),"",VLOOKUP($B33,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="60"/>
-      <c r="AQ33" s="60"/>
-      <c r="AR33" s="60"/>
-      <c r="AS33" s="60"/>
-      <c r="AT33" s="60"/>
-      <c r="AU33" s="61"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="63"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="63"/>
-      <c r="BC33" s="63"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="83"/>
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="83"/>
+      <c r="AI33" s="83"/>
+      <c r="AJ33" s="83"/>
+      <c r="AK33" s="83"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="83"/>
+      <c r="AN33" s="83"/>
+      <c r="AO33" s="83"/>
+      <c r="AP33" s="83"/>
+      <c r="AQ33" s="83"/>
+      <c r="AR33" s="83"/>
+      <c r="AS33" s="83"/>
+      <c r="AT33" s="83"/>
+      <c r="AU33" s="84"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="79"/>
+      <c r="AZ33" s="79"/>
+      <c r="BA33" s="79"/>
+      <c r="BB33" s="79"/>
+      <c r="BC33" s="79"/>
       <c r="BD33" s="18"/>
       <c r="BE33" s="19"/>
       <c r="BF33" s="20"/>
@@ -6282,63 +6273,63 @@
     </row>
     <row r="34" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="60" t="str">
+      <c r="G34" s="83" t="str">
         <f>IF(ISBLANK(B34),"",VLOOKUP($B34,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="60"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
-      <c r="AP34" s="60"/>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="60"/>
-      <c r="AS34" s="60"/>
-      <c r="AT34" s="60"/>
-      <c r="AU34" s="61"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="63"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="63"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="63"/>
-      <c r="BC34" s="63"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="83"/>
+      <c r="AH34" s="83"/>
+      <c r="AI34" s="83"/>
+      <c r="AJ34" s="83"/>
+      <c r="AK34" s="83"/>
+      <c r="AL34" s="83"/>
+      <c r="AM34" s="83"/>
+      <c r="AN34" s="83"/>
+      <c r="AO34" s="83"/>
+      <c r="AP34" s="83"/>
+      <c r="AQ34" s="83"/>
+      <c r="AR34" s="83"/>
+      <c r="AS34" s="83"/>
+      <c r="AT34" s="83"/>
+      <c r="AU34" s="84"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="79"/>
+      <c r="AZ34" s="79"/>
+      <c r="BA34" s="79"/>
+      <c r="BB34" s="79"/>
+      <c r="BC34" s="79"/>
       <c r="BD34" s="18"/>
       <c r="BE34" s="19"/>
       <c r="BF34" s="20"/>
@@ -6351,63 +6342,63 @@
     </row>
     <row r="35" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="60" t="str">
+      <c r="G35" s="83" t="str">
         <f>IF(ISBLANK(B35),"",VLOOKUP($B35,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="60"/>
-      <c r="AT35" s="60"/>
-      <c r="AU35" s="61"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="63"/>
-      <c r="AX35" s="63"/>
-      <c r="AY35" s="63"/>
-      <c r="AZ35" s="63"/>
-      <c r="BA35" s="63"/>
-      <c r="BB35" s="63"/>
-      <c r="BC35" s="63"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="83"/>
+      <c r="AJ35" s="83"/>
+      <c r="AK35" s="83"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="83"/>
+      <c r="AN35" s="83"/>
+      <c r="AO35" s="83"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="83"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="83"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="84"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="79"/>
+      <c r="AZ35" s="79"/>
+      <c r="BA35" s="79"/>
+      <c r="BB35" s="79"/>
+      <c r="BC35" s="79"/>
       <c r="BD35" s="18"/>
       <c r="BE35" s="19"/>
       <c r="BF35" s="20"/>
@@ -6420,63 +6411,63 @@
     </row>
     <row r="36" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="60" t="str">
+      <c r="G36" s="83" t="str">
         <f>IF(ISBLANK(B36),"",VLOOKUP($B36,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="60"/>
-      <c r="AS36" s="60"/>
-      <c r="AT36" s="60"/>
-      <c r="AU36" s="61"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="63"/>
-      <c r="AX36" s="63"/>
-      <c r="AY36" s="63"/>
-      <c r="AZ36" s="63"/>
-      <c r="BA36" s="63"/>
-      <c r="BB36" s="63"/>
-      <c r="BC36" s="63"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="83"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="83"/>
+      <c r="AB36" s="83"/>
+      <c r="AC36" s="83"/>
+      <c r="AD36" s="83"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="83"/>
+      <c r="AG36" s="83"/>
+      <c r="AH36" s="83"/>
+      <c r="AI36" s="83"/>
+      <c r="AJ36" s="83"/>
+      <c r="AK36" s="83"/>
+      <c r="AL36" s="83"/>
+      <c r="AM36" s="83"/>
+      <c r="AN36" s="83"/>
+      <c r="AO36" s="83"/>
+      <c r="AP36" s="83"/>
+      <c r="AQ36" s="83"/>
+      <c r="AR36" s="83"/>
+      <c r="AS36" s="83"/>
+      <c r="AT36" s="83"/>
+      <c r="AU36" s="84"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="79"/>
+      <c r="AX36" s="79"/>
+      <c r="AY36" s="79"/>
+      <c r="AZ36" s="79"/>
+      <c r="BA36" s="79"/>
+      <c r="BB36" s="79"/>
+      <c r="BC36" s="79"/>
       <c r="BD36" s="18" t="str">
         <f>IF(ISBLANK(B36),"",VLOOKUP(B36,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -6508,63 +6499,63 @@
     </row>
     <row r="37" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="60" t="str">
+      <c r="G37" s="83" t="str">
         <f>IF(ISBLANK(B37),"",VLOOKUP($B37,'[1]PARTIDAS EGRESOS'!$A$10:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
-      <c r="AP37" s="60"/>
-      <c r="AQ37" s="60"/>
-      <c r="AR37" s="60"/>
-      <c r="AS37" s="60"/>
-      <c r="AT37" s="60"/>
-      <c r="AU37" s="61"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="63"/>
-      <c r="AX37" s="63"/>
-      <c r="AY37" s="63"/>
-      <c r="AZ37" s="63"/>
-      <c r="BA37" s="63"/>
-      <c r="BB37" s="63"/>
-      <c r="BC37" s="63"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="83"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="83"/>
+      <c r="AJ37" s="83"/>
+      <c r="AK37" s="83"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="83"/>
+      <c r="AN37" s="83"/>
+      <c r="AO37" s="83"/>
+      <c r="AP37" s="83"/>
+      <c r="AQ37" s="83"/>
+      <c r="AR37" s="83"/>
+      <c r="AS37" s="83"/>
+      <c r="AT37" s="83"/>
+      <c r="AU37" s="84"/>
+      <c r="AV37" s="78"/>
+      <c r="AW37" s="79"/>
+      <c r="AX37" s="79"/>
+      <c r="AY37" s="79"/>
+      <c r="AZ37" s="79"/>
+      <c r="BA37" s="79"/>
+      <c r="BB37" s="79"/>
+      <c r="BC37" s="79"/>
       <c r="BD37" s="18" t="str">
         <f>IF(ISBLANK(B37),"",VLOOKUP(B37,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -6593,65 +6584,65 @@
     </row>
     <row r="38" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="16"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="80" t="str">
+      <c r="G38" s="75" t="str">
         <f>IF(ISBLANK(B38),"",VLOOKUP($B38,'[1]PARTIDAS EGRESOS'!$A$10:$B$147,2,0))</f>
         <v/>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
-      <c r="W38" s="81"/>
-      <c r="X38" s="81"/>
-      <c r="Y38" s="81"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="81"/>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="81"/>
-      <c r="AF38" s="81"/>
-      <c r="AG38" s="81"/>
-      <c r="AH38" s="81"/>
-      <c r="AI38" s="81"/>
-      <c r="AJ38" s="81"/>
-      <c r="AK38" s="81"/>
-      <c r="AL38" s="81"/>
-      <c r="AM38" s="81"/>
-      <c r="AN38" s="81"/>
-      <c r="AO38" s="81"/>
-      <c r="AP38" s="81" t="s">
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
+      <c r="AH38" s="76"/>
+      <c r="AI38" s="76"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="76"/>
+      <c r="AN38" s="76"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AQ38" s="81"/>
-      <c r="AR38" s="81"/>
-      <c r="AS38" s="81"/>
-      <c r="AT38" s="81"/>
-      <c r="AU38" s="82"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="63"/>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="63"/>
-      <c r="AZ38" s="63"/>
-      <c r="BA38" s="63"/>
-      <c r="BB38" s="63"/>
-      <c r="BC38" s="63"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="77"/>
+      <c r="AV38" s="78"/>
+      <c r="AW38" s="79"/>
+      <c r="AX38" s="79"/>
+      <c r="AY38" s="79"/>
+      <c r="AZ38" s="79"/>
+      <c r="BA38" s="79"/>
+      <c r="BB38" s="79"/>
+      <c r="BC38" s="79"/>
       <c r="BD38" s="18" t="str">
         <f>IF(ISBLANK(B38),"",VLOOKUP(B38,'[1]PARTIDAS EGRESOS'!A$1:C$65536,3,0))</f>
         <v/>
@@ -6794,16 +6785,16 @@
         <v>8</v>
       </c>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="83">
+      <c r="AW40" s="80">
         <f>(SUM(AV18:BC37))</f>
         <v>0</v>
       </c>
-      <c r="AX40" s="84"/>
-      <c r="AY40" s="84"/>
-      <c r="AZ40" s="84"/>
-      <c r="BA40" s="84"/>
-      <c r="BB40" s="84"/>
-      <c r="BC40" s="84"/>
+      <c r="AX40" s="81"/>
+      <c r="AY40" s="81"/>
+      <c r="AZ40" s="81"/>
+      <c r="BA40" s="81"/>
+      <c r="BB40" s="81"/>
+      <c r="BC40" s="81"/>
       <c r="BD40" s="35"/>
       <c r="BE40" s="35"/>
       <c r="BF40" s="35"/>
@@ -6814,61 +6805,61 @@
       <c r="BK40" s="28"/>
     </row>
     <row r="41" spans="1:256" s="25" customFormat="1" ht="10.050000000000001" customHeight="1">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="85"/>
-      <c r="AC41" s="85"/>
-      <c r="AD41" s="85"/>
-      <c r="AE41" s="85"/>
-      <c r="AF41" s="85"/>
-      <c r="AG41" s="85"/>
-      <c r="AH41" s="85"/>
-      <c r="AI41" s="85"/>
-      <c r="AJ41" s="85"/>
-      <c r="AK41" s="85"/>
-      <c r="AL41" s="85"/>
-      <c r="AM41" s="85"/>
-      <c r="AN41" s="85"/>
-      <c r="AO41" s="85"/>
-      <c r="AP41" s="85"/>
-      <c r="AQ41" s="85"/>
-      <c r="AR41" s="85"/>
-      <c r="AS41" s="85"/>
-      <c r="AT41" s="85"/>
-      <c r="AU41" s="85"/>
-      <c r="AV41" s="85"/>
-      <c r="AW41" s="85"/>
-      <c r="AX41" s="85"/>
-      <c r="AY41" s="85"/>
-      <c r="AZ41" s="85"/>
-      <c r="BA41" s="85"/>
-      <c r="BB41" s="85"/>
-      <c r="BC41" s="85"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="82"/>
+      <c r="AJ41" s="82"/>
+      <c r="AK41" s="82"/>
+      <c r="AL41" s="82"/>
+      <c r="AM41" s="82"/>
+      <c r="AN41" s="82"/>
+      <c r="AO41" s="82"/>
+      <c r="AP41" s="82"/>
+      <c r="AQ41" s="82"/>
+      <c r="AR41" s="82"/>
+      <c r="AS41" s="82"/>
+      <c r="AT41" s="82"/>
+      <c r="AU41" s="82"/>
+      <c r="AV41" s="82"/>
+      <c r="AW41" s="82"/>
+      <c r="AX41" s="82"/>
+      <c r="AY41" s="82"/>
+      <c r="AZ41" s="82"/>
+      <c r="BA41" s="82"/>
+      <c r="BB41" s="82"/>
+      <c r="BC41" s="82"/>
       <c r="BD41" s="35"/>
       <c r="BE41" s="35"/>
       <c r="BF41" s="35"/>
@@ -6879,65 +6870,65 @@
       <c r="BK41" s="28"/>
     </row>
     <row r="42" spans="1:256" s="25" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="65"/>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="65"/>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="65"/>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="65"/>
-      <c r="AR42" s="65"/>
-      <c r="AS42" s="65"/>
-      <c r="AT42" s="65"/>
-      <c r="AU42" s="66"/>
-      <c r="AV42" s="65" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="62"/>
+      <c r="AH42" s="62"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="62"/>
+      <c r="AM42" s="62"/>
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="62"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="63"/>
+      <c r="AV42" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AW42" s="70"/>
-      <c r="AX42" s="70"/>
-      <c r="AY42" s="70"/>
-      <c r="AZ42" s="70"/>
-      <c r="BA42" s="70"/>
-      <c r="BB42" s="70"/>
-      <c r="BC42" s="70"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="66"/>
+      <c r="BA42" s="66"/>
+      <c r="BB42" s="66"/>
+      <c r="BC42" s="66"/>
       <c r="BD42" s="35"/>
       <c r="BE42" s="35"/>
       <c r="BF42" s="35"/>
@@ -6948,61 +6939,61 @@
       <c r="BK42" s="28"/>
     </row>
     <row r="43" spans="1:256" s="25" customFormat="1" ht="9.1" customHeight="1" thickBot="1">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="68"/>
-      <c r="AV43" s="73"/>
-      <c r="AW43" s="73"/>
-      <c r="AX43" s="73"/>
-      <c r="AY43" s="73"/>
-      <c r="AZ43" s="73"/>
-      <c r="BA43" s="73"/>
-      <c r="BB43" s="73"/>
-      <c r="BC43" s="73"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="64"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="64"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="64"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="64"/>
+      <c r="AK43" s="64"/>
+      <c r="AL43" s="64"/>
+      <c r="AM43" s="64"/>
+      <c r="AN43" s="64"/>
+      <c r="AO43" s="64"/>
+      <c r="AP43" s="64"/>
+      <c r="AQ43" s="64"/>
+      <c r="AR43" s="64"/>
+      <c r="AS43" s="64"/>
+      <c r="AT43" s="64"/>
+      <c r="AU43" s="65"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="67"/>
+      <c r="AX43" s="67"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
+      <c r="BB43" s="67"/>
+      <c r="BC43" s="67"/>
       <c r="BD43" s="35"/>
       <c r="BE43" s="35"/>
       <c r="BF43" s="35"/>
@@ -7013,64 +7004,64 @@
       <c r="BK43" s="28"/>
     </row>
     <row r="44" spans="1:256" s="25" customFormat="1" ht="30.7" customHeight="1">
-      <c r="A44" s="89"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="90"/>
-      <c r="AD44" s="90"/>
-      <c r="AE44" s="90"/>
-      <c r="AF44" s="90"/>
-      <c r="AG44" s="90"/>
-      <c r="AH44" s="90"/>
-      <c r="AI44" s="90"/>
-      <c r="AJ44" s="90"/>
-      <c r="AK44" s="90"/>
-      <c r="AL44" s="90"/>
-      <c r="AM44" s="90"/>
-      <c r="AN44" s="90"/>
-      <c r="AO44" s="90"/>
-      <c r="AP44" s="90"/>
-      <c r="AQ44" s="90"/>
-      <c r="AR44" s="90"/>
-      <c r="AS44" s="90"/>
-      <c r="AT44" s="90"/>
-      <c r="AU44" s="91"/>
-      <c r="AV44" s="92">
+      <c r="A44" s="68"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="69"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="69"/>
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="69"/>
+      <c r="AM44" s="69"/>
+      <c r="AN44" s="69"/>
+      <c r="AO44" s="69"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="69"/>
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="70"/>
+      <c r="AV44" s="71">
         <f>AW40</f>
         <v>0</v>
       </c>
-      <c r="AW44" s="93"/>
-      <c r="AX44" s="93"/>
-      <c r="AY44" s="93"/>
-      <c r="AZ44" s="93"/>
-      <c r="BA44" s="93"/>
-      <c r="BB44" s="93"/>
-      <c r="BC44" s="93"/>
+      <c r="AW44" s="72"/>
+      <c r="AX44" s="72"/>
+      <c r="AY44" s="72"/>
+      <c r="AZ44" s="72"/>
+      <c r="BA44" s="72"/>
+      <c r="BB44" s="72"/>
+      <c r="BC44" s="72"/>
       <c r="BD44" s="35"/>
       <c r="BE44" s="35"/>
       <c r="BF44" s="35"/>
@@ -7085,552 +7076,552 @@
     </row>
     <row r="45" spans="1:256" ht="10.050000000000001" customHeight="1"/>
     <row r="46" spans="1:256" ht="17.25" customHeight="1">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="95"/>
-      <c r="X46" s="95"/>
-      <c r="Y46" s="95"/>
-      <c r="Z46" s="95"/>
-      <c r="AA46" s="95"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="95"/>
-      <c r="AD46" s="95"/>
-      <c r="AE46" s="95"/>
-      <c r="AF46" s="95"/>
-      <c r="AG46" s="95"/>
-      <c r="AH46" s="95"/>
-      <c r="AI46" s="95"/>
-      <c r="AJ46" s="95"/>
-      <c r="AK46" s="95"/>
-      <c r="AL46" s="95"/>
-      <c r="AM46" s="95"/>
-      <c r="AN46" s="95"/>
-      <c r="AO46" s="95"/>
-      <c r="AP46" s="95"/>
-      <c r="AQ46" s="95"/>
-      <c r="AR46" s="95"/>
-      <c r="AS46" s="95"/>
-      <c r="AT46" s="95"/>
-      <c r="AU46" s="95"/>
-      <c r="AV46" s="95"/>
-      <c r="AW46" s="95"/>
-      <c r="AX46" s="95"/>
-      <c r="AY46" s="95"/>
-      <c r="AZ46" s="95"/>
-      <c r="BA46" s="95"/>
-      <c r="BB46" s="95"/>
-      <c r="BC46" s="95"/>
-      <c r="BD46" s="95"/>
-      <c r="BE46" s="95"/>
-      <c r="BF46" s="95"/>
-      <c r="BG46" s="95"/>
-      <c r="BH46" s="95"/>
-      <c r="BI46" s="95"/>
-      <c r="BJ46" s="87"/>
-      <c r="BK46" s="88"/>
-      <c r="BL46" s="88"/>
-      <c r="BM46" s="88"/>
-      <c r="BN46" s="88"/>
-      <c r="BO46" s="88"/>
-      <c r="BP46" s="88"/>
-      <c r="BQ46" s="88"/>
-      <c r="BR46" s="88"/>
-      <c r="BS46" s="88"/>
-      <c r="BT46" s="88"/>
-      <c r="BU46" s="88"/>
-      <c r="BV46" s="88"/>
-      <c r="BW46" s="88"/>
-      <c r="BX46" s="88"/>
-      <c r="BY46" s="88"/>
-      <c r="BZ46" s="88"/>
-      <c r="CA46" s="88"/>
-      <c r="CB46" s="88"/>
-      <c r="CC46" s="88"/>
-      <c r="CD46" s="88"/>
-      <c r="CE46" s="88"/>
-      <c r="CF46" s="88"/>
-      <c r="CG46" s="88"/>
-      <c r="CH46" s="88"/>
-      <c r="CI46" s="88"/>
-      <c r="CJ46" s="88"/>
-      <c r="CK46" s="88"/>
-      <c r="CL46" s="88"/>
-      <c r="CM46" s="88"/>
-      <c r="CN46" s="88"/>
-      <c r="CO46" s="88"/>
-      <c r="CP46" s="88"/>
-      <c r="CQ46" s="88"/>
-      <c r="CR46" s="88"/>
-      <c r="CS46" s="88"/>
-      <c r="CT46" s="88"/>
-      <c r="CU46" s="88"/>
-      <c r="CV46" s="88"/>
-      <c r="CW46" s="88"/>
-      <c r="CX46" s="88"/>
-      <c r="CY46" s="88"/>
-      <c r="CZ46" s="88"/>
-      <c r="DA46" s="86"/>
-      <c r="DB46" s="86"/>
-      <c r="DC46" s="86"/>
-      <c r="DD46" s="86"/>
-      <c r="DE46" s="86"/>
-      <c r="DF46" s="86"/>
-      <c r="DG46" s="86"/>
-      <c r="DH46" s="86"/>
-      <c r="DI46" s="86"/>
-      <c r="DJ46" s="87"/>
-      <c r="DK46" s="88"/>
-      <c r="DL46" s="88"/>
-      <c r="DM46" s="88"/>
-      <c r="DN46" s="88"/>
-      <c r="DO46" s="88"/>
-      <c r="DP46" s="88"/>
-      <c r="DQ46" s="88"/>
-      <c r="DR46" s="88"/>
-      <c r="DS46" s="88"/>
-      <c r="DT46" s="88"/>
-      <c r="DU46" s="88"/>
-      <c r="DV46" s="88"/>
-      <c r="DW46" s="88"/>
-      <c r="DX46" s="88"/>
-      <c r="DY46" s="88"/>
-      <c r="DZ46" s="88"/>
-      <c r="EA46" s="88"/>
-      <c r="EB46" s="88"/>
-      <c r="EC46" s="88"/>
-      <c r="ED46" s="88"/>
-      <c r="EE46" s="88"/>
-      <c r="EF46" s="88"/>
-      <c r="EG46" s="88"/>
-      <c r="EH46" s="88"/>
-      <c r="EI46" s="88"/>
-      <c r="EJ46" s="88"/>
-      <c r="EK46" s="88"/>
-      <c r="EL46" s="88"/>
-      <c r="EM46" s="88"/>
-      <c r="EN46" s="88"/>
-      <c r="EO46" s="88"/>
-      <c r="EP46" s="88"/>
-      <c r="EQ46" s="88"/>
-      <c r="ER46" s="88"/>
-      <c r="ES46" s="88"/>
-      <c r="ET46" s="88"/>
-      <c r="EU46" s="88"/>
-      <c r="EV46" s="88"/>
-      <c r="EW46" s="88"/>
-      <c r="EX46" s="88"/>
-      <c r="EY46" s="88"/>
-      <c r="EZ46" s="88"/>
-      <c r="FA46" s="86"/>
-      <c r="FB46" s="86"/>
-      <c r="FC46" s="86"/>
-      <c r="FD46" s="86"/>
-      <c r="FE46" s="86"/>
-      <c r="FF46" s="86"/>
-      <c r="FG46" s="86"/>
-      <c r="FH46" s="86"/>
-      <c r="FI46" s="86"/>
-      <c r="FJ46" s="87"/>
-      <c r="FK46" s="88"/>
-      <c r="FL46" s="88"/>
-      <c r="FM46" s="88"/>
-      <c r="FN46" s="88"/>
-      <c r="FO46" s="88"/>
-      <c r="FP46" s="88"/>
-      <c r="FQ46" s="88"/>
-      <c r="FR46" s="88"/>
-      <c r="FS46" s="88"/>
-      <c r="FT46" s="88"/>
-      <c r="FU46" s="88"/>
-      <c r="FV46" s="88"/>
-      <c r="FW46" s="88"/>
-      <c r="FX46" s="88"/>
-      <c r="FY46" s="88"/>
-      <c r="FZ46" s="88"/>
-      <c r="GA46" s="88"/>
-      <c r="GB46" s="88"/>
-      <c r="GC46" s="88"/>
-      <c r="GD46" s="88"/>
-      <c r="GE46" s="88"/>
-      <c r="GF46" s="88"/>
-      <c r="GG46" s="88"/>
-      <c r="GH46" s="88"/>
-      <c r="GI46" s="88"/>
-      <c r="GJ46" s="88"/>
-      <c r="GK46" s="88"/>
-      <c r="GL46" s="88"/>
-      <c r="GM46" s="88"/>
-      <c r="GN46" s="88"/>
-      <c r="GO46" s="88"/>
-      <c r="GP46" s="88"/>
-      <c r="GQ46" s="88"/>
-      <c r="GR46" s="88"/>
-      <c r="GS46" s="88"/>
-      <c r="GT46" s="88"/>
-      <c r="GU46" s="88"/>
-      <c r="GV46" s="88"/>
-      <c r="GW46" s="88"/>
-      <c r="GX46" s="88"/>
-      <c r="GY46" s="88"/>
-      <c r="GZ46" s="88"/>
-      <c r="HA46" s="86"/>
-      <c r="HB46" s="86"/>
-      <c r="HC46" s="86"/>
-      <c r="HD46" s="86"/>
-      <c r="HE46" s="86"/>
-      <c r="HF46" s="86"/>
-      <c r="HG46" s="86"/>
-      <c r="HH46" s="86"/>
-      <c r="HI46" s="86"/>
-      <c r="HJ46" s="87"/>
-      <c r="HK46" s="88"/>
-      <c r="HL46" s="88"/>
-      <c r="HM46" s="88"/>
-      <c r="HN46" s="88"/>
-      <c r="HO46" s="88"/>
-      <c r="HP46" s="88"/>
-      <c r="HQ46" s="88"/>
-      <c r="HR46" s="88"/>
-      <c r="HS46" s="88"/>
-      <c r="HT46" s="88"/>
-      <c r="HU46" s="88"/>
-      <c r="HV46" s="88"/>
-      <c r="HW46" s="88"/>
-      <c r="HX46" s="88"/>
-      <c r="HY46" s="88"/>
-      <c r="HZ46" s="88"/>
-      <c r="IA46" s="88"/>
-      <c r="IB46" s="88"/>
-      <c r="IC46" s="88"/>
-      <c r="ID46" s="88"/>
-      <c r="IE46" s="88"/>
-      <c r="IF46" s="88"/>
-      <c r="IG46" s="88"/>
-      <c r="IH46" s="88"/>
-      <c r="II46" s="88"/>
-      <c r="IJ46" s="88"/>
-      <c r="IK46" s="88"/>
-      <c r="IL46" s="88"/>
-      <c r="IM46" s="88"/>
-      <c r="IN46" s="88"/>
-      <c r="IO46" s="88"/>
-      <c r="IP46" s="88"/>
-      <c r="IQ46" s="88"/>
-      <c r="IR46" s="88"/>
-      <c r="IS46" s="88"/>
-      <c r="IT46" s="88"/>
-      <c r="IU46" s="88"/>
-      <c r="IV46" s="88"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="53"/>
+      <c r="AL46" s="53"/>
+      <c r="AM46" s="53"/>
+      <c r="AN46" s="53"/>
+      <c r="AO46" s="53"/>
+      <c r="AP46" s="53"/>
+      <c r="AQ46" s="53"/>
+      <c r="AR46" s="53"/>
+      <c r="AS46" s="53"/>
+      <c r="AT46" s="53"/>
+      <c r="AU46" s="53"/>
+      <c r="AV46" s="53"/>
+      <c r="AW46" s="53"/>
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="53"/>
+      <c r="BA46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BC46" s="53"/>
+      <c r="BD46" s="53"/>
+      <c r="BE46" s="53"/>
+      <c r="BF46" s="53"/>
+      <c r="BG46" s="53"/>
+      <c r="BH46" s="53"/>
+      <c r="BI46" s="53"/>
+      <c r="BJ46" s="60"/>
+      <c r="BK46" s="61"/>
+      <c r="BL46" s="61"/>
+      <c r="BM46" s="61"/>
+      <c r="BN46" s="61"/>
+      <c r="BO46" s="61"/>
+      <c r="BP46" s="61"/>
+      <c r="BQ46" s="61"/>
+      <c r="BR46" s="61"/>
+      <c r="BS46" s="61"/>
+      <c r="BT46" s="61"/>
+      <c r="BU46" s="61"/>
+      <c r="BV46" s="61"/>
+      <c r="BW46" s="61"/>
+      <c r="BX46" s="61"/>
+      <c r="BY46" s="61"/>
+      <c r="BZ46" s="61"/>
+      <c r="CA46" s="61"/>
+      <c r="CB46" s="61"/>
+      <c r="CC46" s="61"/>
+      <c r="CD46" s="61"/>
+      <c r="CE46" s="61"/>
+      <c r="CF46" s="61"/>
+      <c r="CG46" s="61"/>
+      <c r="CH46" s="61"/>
+      <c r="CI46" s="61"/>
+      <c r="CJ46" s="61"/>
+      <c r="CK46" s="61"/>
+      <c r="CL46" s="61"/>
+      <c r="CM46" s="61"/>
+      <c r="CN46" s="61"/>
+      <c r="CO46" s="61"/>
+      <c r="CP46" s="61"/>
+      <c r="CQ46" s="61"/>
+      <c r="CR46" s="61"/>
+      <c r="CS46" s="61"/>
+      <c r="CT46" s="61"/>
+      <c r="CU46" s="61"/>
+      <c r="CV46" s="61"/>
+      <c r="CW46" s="61"/>
+      <c r="CX46" s="61"/>
+      <c r="CY46" s="61"/>
+      <c r="CZ46" s="61"/>
+      <c r="DA46" s="59"/>
+      <c r="DB46" s="59"/>
+      <c r="DC46" s="59"/>
+      <c r="DD46" s="59"/>
+      <c r="DE46" s="59"/>
+      <c r="DF46" s="59"/>
+      <c r="DG46" s="59"/>
+      <c r="DH46" s="59"/>
+      <c r="DI46" s="59"/>
+      <c r="DJ46" s="60"/>
+      <c r="DK46" s="61"/>
+      <c r="DL46" s="61"/>
+      <c r="DM46" s="61"/>
+      <c r="DN46" s="61"/>
+      <c r="DO46" s="61"/>
+      <c r="DP46" s="61"/>
+      <c r="DQ46" s="61"/>
+      <c r="DR46" s="61"/>
+      <c r="DS46" s="61"/>
+      <c r="DT46" s="61"/>
+      <c r="DU46" s="61"/>
+      <c r="DV46" s="61"/>
+      <c r="DW46" s="61"/>
+      <c r="DX46" s="61"/>
+      <c r="DY46" s="61"/>
+      <c r="DZ46" s="61"/>
+      <c r="EA46" s="61"/>
+      <c r="EB46" s="61"/>
+      <c r="EC46" s="61"/>
+      <c r="ED46" s="61"/>
+      <c r="EE46" s="61"/>
+      <c r="EF46" s="61"/>
+      <c r="EG46" s="61"/>
+      <c r="EH46" s="61"/>
+      <c r="EI46" s="61"/>
+      <c r="EJ46" s="61"/>
+      <c r="EK46" s="61"/>
+      <c r="EL46" s="61"/>
+      <c r="EM46" s="61"/>
+      <c r="EN46" s="61"/>
+      <c r="EO46" s="61"/>
+      <c r="EP46" s="61"/>
+      <c r="EQ46" s="61"/>
+      <c r="ER46" s="61"/>
+      <c r="ES46" s="61"/>
+      <c r="ET46" s="61"/>
+      <c r="EU46" s="61"/>
+      <c r="EV46" s="61"/>
+      <c r="EW46" s="61"/>
+      <c r="EX46" s="61"/>
+      <c r="EY46" s="61"/>
+      <c r="EZ46" s="61"/>
+      <c r="FA46" s="59"/>
+      <c r="FB46" s="59"/>
+      <c r="FC46" s="59"/>
+      <c r="FD46" s="59"/>
+      <c r="FE46" s="59"/>
+      <c r="FF46" s="59"/>
+      <c r="FG46" s="59"/>
+      <c r="FH46" s="59"/>
+      <c r="FI46" s="59"/>
+      <c r="FJ46" s="60"/>
+      <c r="FK46" s="61"/>
+      <c r="FL46" s="61"/>
+      <c r="FM46" s="61"/>
+      <c r="FN46" s="61"/>
+      <c r="FO46" s="61"/>
+      <c r="FP46" s="61"/>
+      <c r="FQ46" s="61"/>
+      <c r="FR46" s="61"/>
+      <c r="FS46" s="61"/>
+      <c r="FT46" s="61"/>
+      <c r="FU46" s="61"/>
+      <c r="FV46" s="61"/>
+      <c r="FW46" s="61"/>
+      <c r="FX46" s="61"/>
+      <c r="FY46" s="61"/>
+      <c r="FZ46" s="61"/>
+      <c r="GA46" s="61"/>
+      <c r="GB46" s="61"/>
+      <c r="GC46" s="61"/>
+      <c r="GD46" s="61"/>
+      <c r="GE46" s="61"/>
+      <c r="GF46" s="61"/>
+      <c r="GG46" s="61"/>
+      <c r="GH46" s="61"/>
+      <c r="GI46" s="61"/>
+      <c r="GJ46" s="61"/>
+      <c r="GK46" s="61"/>
+      <c r="GL46" s="61"/>
+      <c r="GM46" s="61"/>
+      <c r="GN46" s="61"/>
+      <c r="GO46" s="61"/>
+      <c r="GP46" s="61"/>
+      <c r="GQ46" s="61"/>
+      <c r="GR46" s="61"/>
+      <c r="GS46" s="61"/>
+      <c r="GT46" s="61"/>
+      <c r="GU46" s="61"/>
+      <c r="GV46" s="61"/>
+      <c r="GW46" s="61"/>
+      <c r="GX46" s="61"/>
+      <c r="GY46" s="61"/>
+      <c r="GZ46" s="61"/>
+      <c r="HA46" s="59"/>
+      <c r="HB46" s="59"/>
+      <c r="HC46" s="59"/>
+      <c r="HD46" s="59"/>
+      <c r="HE46" s="59"/>
+      <c r="HF46" s="59"/>
+      <c r="HG46" s="59"/>
+      <c r="HH46" s="59"/>
+      <c r="HI46" s="59"/>
+      <c r="HJ46" s="60"/>
+      <c r="HK46" s="61"/>
+      <c r="HL46" s="61"/>
+      <c r="HM46" s="61"/>
+      <c r="HN46" s="61"/>
+      <c r="HO46" s="61"/>
+      <c r="HP46" s="61"/>
+      <c r="HQ46" s="61"/>
+      <c r="HR46" s="61"/>
+      <c r="HS46" s="61"/>
+      <c r="HT46" s="61"/>
+      <c r="HU46" s="61"/>
+      <c r="HV46" s="61"/>
+      <c r="HW46" s="61"/>
+      <c r="HX46" s="61"/>
+      <c r="HY46" s="61"/>
+      <c r="HZ46" s="61"/>
+      <c r="IA46" s="61"/>
+      <c r="IB46" s="61"/>
+      <c r="IC46" s="61"/>
+      <c r="ID46" s="61"/>
+      <c r="IE46" s="61"/>
+      <c r="IF46" s="61"/>
+      <c r="IG46" s="61"/>
+      <c r="IH46" s="61"/>
+      <c r="II46" s="61"/>
+      <c r="IJ46" s="61"/>
+      <c r="IK46" s="61"/>
+      <c r="IL46" s="61"/>
+      <c r="IM46" s="61"/>
+      <c r="IN46" s="61"/>
+      <c r="IO46" s="61"/>
+      <c r="IP46" s="61"/>
+      <c r="IQ46" s="61"/>
+      <c r="IR46" s="61"/>
+      <c r="IS46" s="61"/>
+      <c r="IT46" s="61"/>
+      <c r="IU46" s="61"/>
+      <c r="IV46" s="61"/>
     </row>
     <row r="47" spans="1:256">
-      <c r="A47" s="105"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
-      <c r="AB47" s="95"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="95"/>
-      <c r="AE47" s="95"/>
-      <c r="AF47" s="95"/>
-      <c r="AG47" s="95"/>
-      <c r="AH47" s="95"/>
-      <c r="AI47" s="95"/>
-      <c r="AJ47" s="95"/>
-      <c r="AK47" s="95"/>
-      <c r="AL47" s="95"/>
-      <c r="AM47" s="95"/>
-      <c r="AN47" s="95"/>
-      <c r="AO47" s="95"/>
-      <c r="AP47" s="95"/>
-      <c r="AQ47" s="95"/>
-      <c r="AR47" s="95"/>
-      <c r="AS47" s="95"/>
-      <c r="AT47" s="95"/>
-      <c r="AU47" s="95"/>
-      <c r="AV47" s="95"/>
-      <c r="AW47" s="95"/>
-      <c r="AX47" s="95"/>
-      <c r="AY47" s="95"/>
-      <c r="AZ47" s="95"/>
-      <c r="BA47" s="95"/>
-      <c r="BB47" s="95"/>
-      <c r="BC47" s="95"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
+      <c r="AZ47" s="53"/>
+      <c r="BA47" s="53"/>
+      <c r="BB47" s="53"/>
+      <c r="BC47" s="53"/>
       <c r="BD47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:256">
-      <c r="A48" s="95"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
-      <c r="V48" s="95"/>
-      <c r="W48" s="95"/>
-      <c r="X48" s="95"/>
-      <c r="Y48" s="95"/>
-      <c r="Z48" s="95"/>
-      <c r="AA48" s="95"/>
-      <c r="AB48" s="95"/>
-      <c r="AC48" s="95"/>
-      <c r="AD48" s="95"/>
-      <c r="AE48" s="95"/>
-      <c r="AF48" s="95"/>
-      <c r="AG48" s="95"/>
-      <c r="AH48" s="95"/>
-      <c r="AI48" s="95"/>
-      <c r="AJ48" s="95"/>
-      <c r="AK48" s="95"/>
-      <c r="AL48" s="95"/>
-      <c r="AM48" s="95"/>
-      <c r="AN48" s="95"/>
-      <c r="AO48" s="95"/>
-      <c r="AP48" s="95"/>
-      <c r="AQ48" s="95"/>
-      <c r="AR48" s="95"/>
-      <c r="AS48" s="95"/>
-      <c r="AT48" s="95"/>
-      <c r="AU48" s="95"/>
-      <c r="AV48" s="95"/>
-      <c r="AW48" s="95"/>
-      <c r="AX48" s="95"/>
-      <c r="AY48" s="95"/>
-      <c r="AZ48" s="95"/>
-      <c r="BA48" s="95"/>
-      <c r="BB48" s="95"/>
-      <c r="BC48" s="95"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="53"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
+      <c r="AU48" s="53"/>
+      <c r="AV48" s="53"/>
+      <c r="AW48" s="53"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="53"/>
+      <c r="AZ48" s="53"/>
+      <c r="BA48" s="53"/>
+      <c r="BB48" s="53"/>
+      <c r="BC48" s="53"/>
     </row>
     <row r="49" spans="1:55">
-      <c r="A49" s="95"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="95"/>
-      <c r="O49" s="95"/>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="95"/>
-      <c r="S49" s="95"/>
-      <c r="T49" s="95"/>
-      <c r="U49" s="95"/>
-      <c r="V49" s="95"/>
-      <c r="W49" s="95"/>
-      <c r="X49" s="95"/>
-      <c r="Y49" s="95"/>
-      <c r="Z49" s="95"/>
-      <c r="AA49" s="95"/>
-      <c r="AB49" s="95"/>
-      <c r="AC49" s="95"/>
-      <c r="AD49" s="95"/>
-      <c r="AE49" s="95"/>
-      <c r="AF49" s="95"/>
-      <c r="AG49" s="95"/>
-      <c r="AH49" s="95"/>
-      <c r="AI49" s="95"/>
-      <c r="AJ49" s="95"/>
-      <c r="AK49" s="95"/>
-      <c r="AL49" s="95"/>
-      <c r="AM49" s="95"/>
-      <c r="AN49" s="95"/>
-      <c r="AO49" s="95"/>
-      <c r="AP49" s="95"/>
-      <c r="AQ49" s="95"/>
-      <c r="AR49" s="95"/>
-      <c r="AS49" s="95"/>
-      <c r="AT49" s="95"/>
-      <c r="AU49" s="95"/>
-      <c r="AV49" s="95"/>
-      <c r="AW49" s="95"/>
-      <c r="AX49" s="95"/>
-      <c r="AY49" s="95"/>
-      <c r="AZ49" s="95"/>
-      <c r="BA49" s="95"/>
-      <c r="BB49" s="95"/>
-      <c r="BC49" s="95"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="53"/>
+      <c r="AN49" s="53"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="53"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="53"/>
+      <c r="AS49" s="53"/>
+      <c r="AT49" s="53"/>
+      <c r="AU49" s="53"/>
+      <c r="AV49" s="53"/>
+      <c r="AW49" s="53"/>
+      <c r="AX49" s="53"/>
+      <c r="AY49" s="53"/>
+      <c r="AZ49" s="53"/>
+      <c r="BA49" s="53"/>
+      <c r="BB49" s="53"/>
+      <c r="BC49" s="53"/>
     </row>
     <row r="50" spans="1:55">
-      <c r="A50" s="95"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="95"/>
-      <c r="S50" s="95"/>
-      <c r="T50" s="95"/>
-      <c r="U50" s="95"/>
-      <c r="V50" s="95"/>
-      <c r="W50" s="95"/>
-      <c r="X50" s="95"/>
-      <c r="Y50" s="95"/>
-      <c r="Z50" s="95"/>
-      <c r="AA50" s="95"/>
-      <c r="AB50" s="95"/>
-      <c r="AC50" s="95"/>
-      <c r="AD50" s="95"/>
-      <c r="AE50" s="95"/>
-      <c r="AF50" s="95"/>
-      <c r="AG50" s="95"/>
-      <c r="AH50" s="95"/>
-      <c r="AI50" s="95"/>
-      <c r="AJ50" s="95"/>
-      <c r="AK50" s="95"/>
-      <c r="AL50" s="95"/>
-      <c r="AM50" s="95"/>
-      <c r="AN50" s="95"/>
-      <c r="AO50" s="95"/>
-      <c r="AP50" s="95"/>
-      <c r="AQ50" s="95"/>
-      <c r="AR50" s="95"/>
-      <c r="AS50" s="95"/>
-      <c r="AT50" s="95"/>
-      <c r="AU50" s="95"/>
-      <c r="AV50" s="95"/>
-      <c r="AW50" s="95"/>
-      <c r="AX50" s="95"/>
-      <c r="AY50" s="95"/>
-      <c r="AZ50" s="95"/>
-      <c r="BA50" s="95"/>
-      <c r="BB50" s="95"/>
-      <c r="BC50" s="95"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="53"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="53"/>
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="53"/>
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="53"/>
+      <c r="AS50" s="53"/>
+      <c r="AT50" s="53"/>
+      <c r="AU50" s="53"/>
+      <c r="AV50" s="53"/>
+      <c r="AW50" s="53"/>
+      <c r="AX50" s="53"/>
+      <c r="AY50" s="53"/>
+      <c r="AZ50" s="53"/>
+      <c r="BA50" s="53"/>
+      <c r="BB50" s="53"/>
+      <c r="BC50" s="53"/>
     </row>
     <row r="51" spans="1:55">
-      <c r="A51" s="95"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="95"/>
-      <c r="X51" s="95"/>
-      <c r="Y51" s="95"/>
-      <c r="Z51" s="95"/>
-      <c r="AA51" s="95"/>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="95"/>
-      <c r="AD51" s="95"/>
-      <c r="AE51" s="95"/>
-      <c r="AF51" s="95"/>
-      <c r="AG51" s="95"/>
-      <c r="AH51" s="95"/>
-      <c r="AI51" s="95"/>
-      <c r="AJ51" s="95"/>
-      <c r="AK51" s="95"/>
-      <c r="AL51" s="95"/>
-      <c r="AM51" s="95"/>
-      <c r="AN51" s="95"/>
-      <c r="AO51" s="95"/>
-      <c r="AP51" s="95"/>
-      <c r="AQ51" s="95"/>
-      <c r="AR51" s="95"/>
-      <c r="AS51" s="95"/>
-      <c r="AT51" s="95"/>
-      <c r="AU51" s="95"/>
-      <c r="AV51" s="95"/>
-      <c r="AW51" s="95"/>
-      <c r="AX51" s="95"/>
-      <c r="AY51" s="95"/>
-      <c r="AZ51" s="95"/>
-      <c r="BA51" s="95"/>
-      <c r="BB51" s="95"/>
-      <c r="BC51" s="95"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
+      <c r="AN51" s="53"/>
+      <c r="AO51" s="53"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53"/>
+      <c r="AT51" s="53"/>
+      <c r="AU51" s="53"/>
+      <c r="AV51" s="53"/>
+      <c r="AW51" s="53"/>
+      <c r="AX51" s="53"/>
+      <c r="AY51" s="53"/>
+      <c r="AZ51" s="53"/>
+      <c r="BA51" s="53"/>
+      <c r="BB51" s="53"/>
+      <c r="BC51" s="53"/>
     </row>
     <row r="52" spans="1:55">
       <c r="A52" s="1" t="s">
@@ -7638,249 +7629,340 @@
       </c>
     </row>
     <row r="53" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="108" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S53" s="106"/>
-      <c r="T53" s="106"/>
-      <c r="U53" s="106"/>
-      <c r="V53" s="106"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="106"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-      <c r="AF53" s="106"/>
-      <c r="AG53" s="106"/>
-      <c r="AH53" s="106"/>
-      <c r="AI53" s="106"/>
-      <c r="AJ53" s="106"/>
-      <c r="AK53" s="106"/>
-      <c r="AL53" s="107"/>
-      <c r="AM53" s="109" t="s">
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="54"/>
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="54"/>
+      <c r="AI53" s="54"/>
+      <c r="AJ53" s="54"/>
+      <c r="AK53" s="54"/>
+      <c r="AL53" s="55"/>
+      <c r="AM53" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN53" s="110"/>
-      <c r="AO53" s="110"/>
-      <c r="AP53" s="110"/>
-      <c r="AQ53" s="110"/>
-      <c r="AR53" s="110"/>
-      <c r="AS53" s="110"/>
-      <c r="AT53" s="110"/>
-      <c r="AU53" s="110"/>
-      <c r="AV53" s="110"/>
-      <c r="AW53" s="110"/>
-      <c r="AX53" s="110"/>
-      <c r="AY53" s="110"/>
-      <c r="AZ53" s="110"/>
-      <c r="BA53" s="110"/>
-      <c r="BB53" s="110"/>
-      <c r="BC53" s="110"/>
+      <c r="AN53" s="58"/>
+      <c r="AO53" s="58"/>
+      <c r="AP53" s="58"/>
+      <c r="AQ53" s="58"/>
+      <c r="AR53" s="58"/>
+      <c r="AS53" s="58"/>
+      <c r="AT53" s="58"/>
+      <c r="AU53" s="58"/>
+      <c r="AV53" s="58"/>
+      <c r="AW53" s="58"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="58"/>
+      <c r="AZ53" s="58"/>
+      <c r="BA53" s="58"/>
+      <c r="BB53" s="58"/>
+      <c r="BC53" s="58"/>
     </row>
     <row r="54" spans="1:55">
-      <c r="A54" s="99"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="M54" s="100"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="100"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="100"/>
-      <c r="T54" s="100"/>
-      <c r="U54" s="100"/>
-      <c r="V54" s="100"/>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="100"/>
-      <c r="AA54" s="100"/>
-      <c r="AB54" s="100"/>
-      <c r="AC54" s="100"/>
-      <c r="AD54" s="100"/>
-      <c r="AE54" s="100"/>
-      <c r="AF54" s="100"/>
-      <c r="AG54" s="100"/>
-      <c r="AH54" s="100"/>
-      <c r="AI54" s="103"/>
-      <c r="AJ54" s="103"/>
-      <c r="AK54" s="103"/>
-      <c r="AL54" s="104"/>
-      <c r="AM54" s="102"/>
-      <c r="AN54" s="100"/>
-      <c r="AO54" s="100"/>
-      <c r="AP54" s="100"/>
-      <c r="AQ54" s="100"/>
-      <c r="AR54" s="100"/>
-      <c r="AS54" s="100"/>
-      <c r="AT54" s="100"/>
-      <c r="AU54" s="100"/>
-      <c r="AV54" s="100"/>
-      <c r="AW54" s="100"/>
-      <c r="AX54" s="100"/>
-      <c r="AY54" s="100"/>
-      <c r="AZ54" s="100"/>
-      <c r="BA54" s="100"/>
-      <c r="BB54" s="100"/>
-      <c r="BC54" s="100"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="50"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="49"/>
+      <c r="AN54" s="47"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
+      <c r="AQ54" s="47"/>
+      <c r="AR54" s="47"/>
+      <c r="AS54" s="47"/>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="47"/>
+      <c r="AW54" s="47"/>
+      <c r="AX54" s="47"/>
+      <c r="AY54" s="47"/>
+      <c r="AZ54" s="47"/>
+      <c r="BA54" s="47"/>
+      <c r="BB54" s="47"/>
+      <c r="BC54" s="47"/>
     </row>
     <row r="55" spans="1:55" ht="12.7" customHeight="1">
-      <c r="A55" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="96"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="96"/>
-      <c r="X55" s="96"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="96"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="96"/>
-      <c r="AE55" s="96"/>
-      <c r="AF55" s="96"/>
-      <c r="AG55" s="96"/>
-      <c r="AH55" s="96"/>
-      <c r="AI55" s="96"/>
-      <c r="AJ55" s="96"/>
-      <c r="AK55" s="96"/>
-      <c r="AL55" s="97"/>
-      <c r="AM55" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN55" s="96"/>
-      <c r="AO55" s="96"/>
-      <c r="AP55" s="96"/>
-      <c r="AQ55" s="96"/>
-      <c r="AR55" s="96"/>
-      <c r="AS55" s="96"/>
-      <c r="AT55" s="96"/>
-      <c r="AU55" s="96"/>
-      <c r="AV55" s="96"/>
-      <c r="AW55" s="96"/>
-      <c r="AX55" s="96"/>
-      <c r="AY55" s="96"/>
-      <c r="AZ55" s="96"/>
-      <c r="BA55" s="96"/>
-      <c r="BB55" s="96"/>
-      <c r="BC55" s="97"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="43"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="43"/>
+      <c r="AJ55" s="43"/>
+      <c r="AK55" s="43"/>
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="43"/>
+      <c r="AN55" s="43"/>
+      <c r="AO55" s="43"/>
+      <c r="AP55" s="43"/>
+      <c r="AQ55" s="43"/>
+      <c r="AR55" s="43"/>
+      <c r="AS55" s="43"/>
+      <c r="AT55" s="43"/>
+      <c r="AU55" s="43"/>
+      <c r="AV55" s="43"/>
+      <c r="AW55" s="43"/>
+      <c r="AX55" s="43"/>
+      <c r="AY55" s="43"/>
+      <c r="AZ55" s="43"/>
+      <c r="BA55" s="43"/>
+      <c r="BB55" s="43"/>
+      <c r="BC55" s="44"/>
     </row>
     <row r="56" spans="1:55">
-      <c r="A56" s="99"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
-      <c r="N56" s="100"/>
-      <c r="O56" s="100"/>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="102" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
-      <c r="V56" s="100"/>
-      <c r="W56" s="100"/>
-      <c r="X56" s="100"/>
-      <c r="Y56" s="100"/>
-      <c r="Z56" s="100"/>
-      <c r="AA56" s="100"/>
-      <c r="AB56" s="100"/>
-      <c r="AC56" s="100"/>
-      <c r="AD56" s="100"/>
-      <c r="AE56" s="100"/>
-      <c r="AF56" s="100"/>
-      <c r="AG56" s="100"/>
-      <c r="AH56" s="100"/>
-      <c r="AI56" s="103"/>
-      <c r="AJ56" s="103"/>
-      <c r="AK56" s="103"/>
-      <c r="AL56" s="104"/>
-      <c r="AM56" s="102"/>
-      <c r="AN56" s="100"/>
-      <c r="AO56" s="100"/>
-      <c r="AP56" s="100"/>
-      <c r="AQ56" s="100"/>
-      <c r="AR56" s="100"/>
-      <c r="AS56" s="100"/>
-      <c r="AT56" s="100"/>
-      <c r="AU56" s="100"/>
-      <c r="AV56" s="100"/>
-      <c r="AW56" s="100"/>
-      <c r="AX56" s="100"/>
-      <c r="AY56" s="100"/>
-      <c r="AZ56" s="100"/>
-      <c r="BA56" s="100"/>
-      <c r="BB56" s="100"/>
-      <c r="BC56" s="100"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="50"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="49"/>
+      <c r="AN56" s="47"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="47"/>
+      <c r="AQ56" s="47"/>
+      <c r="AR56" s="47"/>
+      <c r="AS56" s="47"/>
+      <c r="AT56" s="47"/>
+      <c r="AU56" s="47"/>
+      <c r="AV56" s="47"/>
+      <c r="AW56" s="47"/>
+      <c r="AX56" s="47"/>
+      <c r="AY56" s="47"/>
+      <c r="AZ56" s="47"/>
+      <c r="BA56" s="47"/>
+      <c r="BB56" s="47"/>
+      <c r="BC56" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A8:AP8"/>
+    <mergeCell ref="AQ8:BC8"/>
+    <mergeCell ref="A9:AN9"/>
+    <mergeCell ref="AO9:BC9"/>
+    <mergeCell ref="A10:BC10"/>
+    <mergeCell ref="T12:AD12"/>
+    <mergeCell ref="O1:AQ1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="AX5:BC6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:AU18"/>
+    <mergeCell ref="AV18:BC18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:AU19"/>
+    <mergeCell ref="AV19:BC19"/>
+    <mergeCell ref="A13:BC13"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="F15:AU16"/>
+    <mergeCell ref="AV15:BC16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:AO17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G22:AU22"/>
+    <mergeCell ref="AV22:BC22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G23:AU23"/>
+    <mergeCell ref="AV23:BC23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="G20:AU20"/>
+    <mergeCell ref="AV20:BC20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:AU21"/>
+    <mergeCell ref="AV21:BC21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:AU26"/>
+    <mergeCell ref="AV26:BC26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:AU27"/>
+    <mergeCell ref="AV27:BC27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:AU24"/>
+    <mergeCell ref="AV24:BC24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:AU25"/>
+    <mergeCell ref="AV25:BC25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:AU30"/>
+    <mergeCell ref="AV30:BC30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:AU31"/>
+    <mergeCell ref="AV31:BC31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:AU28"/>
+    <mergeCell ref="AV28:BC28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:AU29"/>
+    <mergeCell ref="AV29:BC29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G34:AU34"/>
+    <mergeCell ref="AV34:BC34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:AU35"/>
+    <mergeCell ref="AV35:BC35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:AU32"/>
+    <mergeCell ref="AV32:BC32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:AU33"/>
+    <mergeCell ref="AV33:BC33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="G38:AU38"/>
+    <mergeCell ref="AV38:BC38"/>
+    <mergeCell ref="AW40:BC40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:AU41"/>
+    <mergeCell ref="AV41:BC41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:AU36"/>
+    <mergeCell ref="AV36:BC36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:AU37"/>
+    <mergeCell ref="AV37:BC37"/>
+    <mergeCell ref="DA46:DI46"/>
+    <mergeCell ref="DJ46:EZ46"/>
+    <mergeCell ref="FA46:FI46"/>
+    <mergeCell ref="FJ46:GZ46"/>
+    <mergeCell ref="HA46:HI46"/>
+    <mergeCell ref="HJ46:IV46"/>
+    <mergeCell ref="A42:AU43"/>
+    <mergeCell ref="AV42:BC43"/>
+    <mergeCell ref="A44:AU44"/>
+    <mergeCell ref="AV44:BC44"/>
+    <mergeCell ref="A46:BI46"/>
+    <mergeCell ref="BJ46:CZ46"/>
     <mergeCell ref="A55:Q55"/>
     <mergeCell ref="R55:AL55"/>
     <mergeCell ref="AM55:BC55"/>
@@ -7894,103 +7976,6 @@
     <mergeCell ref="A54:Q54"/>
     <mergeCell ref="R54:AL54"/>
     <mergeCell ref="AM54:BC54"/>
-    <mergeCell ref="DA46:DI46"/>
-    <mergeCell ref="DJ46:EZ46"/>
-    <mergeCell ref="FA46:FI46"/>
-    <mergeCell ref="FJ46:GZ46"/>
-    <mergeCell ref="HA46:HI46"/>
-    <mergeCell ref="HJ46:IV46"/>
-    <mergeCell ref="A42:AU43"/>
-    <mergeCell ref="AV42:BC43"/>
-    <mergeCell ref="A44:AU44"/>
-    <mergeCell ref="AV44:BC44"/>
-    <mergeCell ref="A46:BI46"/>
-    <mergeCell ref="BJ46:CZ46"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="G38:AU38"/>
-    <mergeCell ref="AV38:BC38"/>
-    <mergeCell ref="AW40:BC40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:AU41"/>
-    <mergeCell ref="AV41:BC41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:AU36"/>
-    <mergeCell ref="AV36:BC36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:AU37"/>
-    <mergeCell ref="AV37:BC37"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G34:AU34"/>
-    <mergeCell ref="AV34:BC34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:AU35"/>
-    <mergeCell ref="AV35:BC35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:AU32"/>
-    <mergeCell ref="AV32:BC32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:AU33"/>
-    <mergeCell ref="AV33:BC33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:AU30"/>
-    <mergeCell ref="AV30:BC30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:AU31"/>
-    <mergeCell ref="AV31:BC31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:AU28"/>
-    <mergeCell ref="AV28:BC28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:AU29"/>
-    <mergeCell ref="AV29:BC29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:AU26"/>
-    <mergeCell ref="AV26:BC26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:AU27"/>
-    <mergeCell ref="AV27:BC27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:AU24"/>
-    <mergeCell ref="AV24:BC24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G25:AU25"/>
-    <mergeCell ref="AV25:BC25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="G22:AU22"/>
-    <mergeCell ref="AV22:BC22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G23:AU23"/>
-    <mergeCell ref="AV23:BC23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="G20:AU20"/>
-    <mergeCell ref="AV20:BC20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="G21:AU21"/>
-    <mergeCell ref="AV21:BC21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:AU18"/>
-    <mergeCell ref="AV18:BC18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="G19:AU19"/>
-    <mergeCell ref="AV19:BC19"/>
-    <mergeCell ref="A13:BC13"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="F15:AU16"/>
-    <mergeCell ref="AV15:BC16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:AO17"/>
-    <mergeCell ref="A8:AP8"/>
-    <mergeCell ref="AQ8:BC8"/>
-    <mergeCell ref="A9:AN9"/>
-    <mergeCell ref="AO9:BC9"/>
-    <mergeCell ref="A10:BC10"/>
-    <mergeCell ref="T12:AD12"/>
-    <mergeCell ref="O1:AQ1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="AX5:BC6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0"/>
